--- a/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -6427,7 +6427,7 @@
   </si>
   <si>
     <r>
-      <t>10.28 1</t>
+      <t>10.31 1</t>
     </r>
     <r>
       <rPr>
@@ -6446,23 +6446,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로토</t>
+      <t xml:space="preserve"> QA</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>10.31 1</t>
+      <t>10.28 1</t>
     </r>
     <r>
       <rPr>
@@ -6481,7 +6471,75 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> QA</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프로토
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">10.28 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시연</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6732,44 +6790,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -6793,6 +6815,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6819,8 +6850,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7680,7 +7738,7 @@
   <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7691,29 +7749,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="12"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
@@ -7749,76 +7807,76 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="25" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="25" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -7838,12 +7896,12 @@
         <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="41"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="2" t="s">
         <v>19</v>
       </c>
@@ -7858,10 +7916,10 @@
       <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
         <v>27</v>
       </c>
@@ -7892,18 +7950,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:M5"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="L6:M7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:M5"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -403,41 +403,6 @@
   </si>
   <si>
     <r>
-      <t>11.21 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로토</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">非 핵심 기능 구현
 </t>
     </r>
@@ -2855,6 +2820,377 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
+컨셉</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨셉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>건물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">리스트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인식
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
 캐릭터</t>
     </r>
     <r>
@@ -2925,6 +3261,64 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>컨셉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>모션</t>
     </r>
     <r>
@@ -2934,17 +3328,55 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
 </t>
     </r>
     <r>
@@ -2964,45 +3396,95 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>장소별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>R&amp;D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">리스트
 </t>
     </r>
     <r>
@@ -3022,711 +3504,56 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">퇴장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">진행
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">완주
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">표시
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">획득
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">하기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">변화
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택지에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> VPS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">재생
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
+      <t>네비게이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> R&amp;D
+- GPS R&amp;D
+- AR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> R&amp;D</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3741,49 +3568,59 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-컨셉</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확정</t>
+스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -3813,7 +3650,991 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>컨셉</t>
+      <t>조건에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">해금
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">시스템
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예외상황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이탈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구체화
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Up/Down </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">연출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만보기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">획득
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">표시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인식
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방명록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카메라로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함께</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진찍기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>갤러리에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">저장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>씬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플로우</t>
     </r>
     <r>
       <rPr>
@@ -3833,2604 +4654,818 @@
         <charset val="129"/>
       </rPr>
       <t>기획서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>건물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">리스트
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인식
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컨셉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상태</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">출력
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>R&amp;D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기술</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">리스트
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>네비게이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> R&amp;D
-- GPS R&amp;D
-- AR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기술</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> R&amp;D</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조건에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>맞게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">해금
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">시스템
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예외상황</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중단</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이탈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따른</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구체화
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Up/Down </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">연출
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만보기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연동으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">획득
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">표시
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인식
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방명록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카메라로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>함께</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사진찍기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>갤러리에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">저장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>씬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>플로우</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획서</t>
+      <t>10.31 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> QA</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프롤로그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>숨겨진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이야기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엔딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잠긴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>열린</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구분
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>범위</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>맞는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만보기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인벤토리
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구매</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방명록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사진찍기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획서</t>
+      <t>10.28 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프로토
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">10.28 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시연</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>10.31 1</t>
-    </r>
-    <r>
-      <rPr>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장소별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">퇴장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">진행
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">완주
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">표시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">획득
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">변화
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VPS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">재생
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
@@ -6441,18 +5476,1088 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> QA</t>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>10.28 1</t>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엔딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스크립트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잠긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방명록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진찍기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획서</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11.21 2</t>
     </r>
     <r>
       <rPr>
@@ -6491,55 +6596,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">10.28 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시연</t>
+      <t>?? : 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> QA</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6793,6 +6869,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -6823,9 +6932,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -6849,36 +6955,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7738,7 +7814,7 @@
   <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7749,29 +7825,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
@@ -7807,76 +7883,76 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>25</v>
+      <c r="C6" s="28" t="s">
+        <v>24</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>24</v>
+      <c r="F6" s="34" t="s">
+        <v>23</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -7893,17 +7969,17 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>18</v>
@@ -7914,54 +7990,54 @@
     </row>
     <row r="9" spans="2:13" ht="351.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:M5"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -7226,39 +7226,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -7289,6 +7256,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -7312,6 +7282,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8170,8 +8170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8182,29 +8182,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="13"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
@@ -8240,76 +8240,76 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="24" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="24" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="25"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -8349,10 +8349,10 @@
       <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
         <v>26</v>
       </c>
@@ -8383,18 +8383,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:M5"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="L6:M7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:M5"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -2663,10 +2663,736 @@
   </si>
   <si>
     <r>
-      <t>11.21 2</t>
-    </r>
-    <r>
-      <rPr>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장소별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">퇴장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">진행
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">완주
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">표시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">획득
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">변화
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- VPS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">재생
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+-TC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
@@ -2677,51 +3403,140 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">프로토
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>?? : 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> QA</t>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2736,38 +3551,136 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
+- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
 </t>
     </r>
     <r>
@@ -2787,45 +3700,198 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
+      <t>엔딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스크립트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -2845,45 +3911,86 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>장소별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
+      <t>잠긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -2903,109 +4010,153 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">퇴장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산책</t>
     </r>
     <r>
       <rPr>
@@ -3035,147 +4186,135 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">진행
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">완주
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">표시
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>산책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
@@ -3186,24 +4325,72 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
     </r>
     <r>
       <rPr>
@@ -3233,26 +4420,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">획득
+      <t>방명록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
 </t>
     </r>
     <r>
@@ -3272,335 +4459,76 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">하기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">변화
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+      <t>사진찍기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- VPS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">재생
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
--TC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">작성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
+- QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3677,74 +4605,36 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엔딩까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
 </t>
     </r>
     <r>
@@ -3764,122 +4654,87 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>엔딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스크립트</t>
+      <t>반복</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">플레이
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
     </r>
     <r>
       <rPr>
@@ -3898,54 +4753,195 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>각</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
+      <t xml:space="preserve">획득
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선물하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>랜덤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">등장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">퇴장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세이브</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로드</t>
     </r>
     <r>
       <rPr>
@@ -3975,69 +4971,38 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>잠긴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>열린</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구분
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
@@ -4050,6 +5015,155 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인벤토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">불러오기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨텐츠</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다운로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -4059,6 +5173,17 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UI
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -4074,496 +5199,125 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>범위</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>맞는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+      <t>임시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">제작
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>획득</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구매</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방명록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사진찍기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- QA</t>
+- TC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- QA</t>
     </r>
     <r>
       <rPr>
@@ -4602,64 +5356,32 @@
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
+CBT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI</t>
     </r>
     <r>
       <rPr>
@@ -4679,26 +5401,121 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>엔딩까지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
+      <t>로비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타이틀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도움말</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">크레딧
 </t>
     </r>
     <r>
@@ -4718,38 +5535,59 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>반복</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">플레이
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
+      <t>인게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">화면
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로비</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
     </r>
     <r>
       <rPr>
@@ -4779,45 +5617,83 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구매</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">획득
+      <t>터치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>랜덤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력
 </t>
     </r>
     <r>
@@ -4837,7 +5713,76 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">선물하기
+      <t>대사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sound</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
 </t>
     </r>
     <r>
@@ -4857,560 +5802,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>무료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>랜덤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">등장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하나</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">퇴장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세이브</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상황</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인벤토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>저장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">불러오기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컨텐츠</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다운로드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>임시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이미지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">제작
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- TC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">작성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팀과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
+      <t>사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5424,15 +5835,14 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-CBT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+OBT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -5442,450 +5852,53 @@
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메뉴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타이틀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>도움말</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">크레딧
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인게임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">화면
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로비</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>터치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>랜덤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">출력
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sound</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>적용</t>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빌드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5895,930 +5908,1013 @@
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-OBT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최종</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빌드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- 3D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그래픽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">제작
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플레이어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미니맵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미니맵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>간이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인벤토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에셋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">확보
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리소스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">확보
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- 3D </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그래픽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">제작
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>플레이어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이동
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미니맵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미니맵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인벤토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">작성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필요한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에셋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">확보
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
+      <t>11.21 2</t>
     </r>
     <r>
       <rPr>
@@ -6847,132 +6943,36 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>프로토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">작성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리소스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">확보
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
+      <t xml:space="preserve">프로토
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11.21~23 : 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> QA</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7226,6 +7226,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -7256,9 +7289,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -7282,36 +7312,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8171,7 +8171,7 @@
   <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8182,29 +8182,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
@@ -8240,76 +8240,76 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="13" t="s">
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>18</v>
@@ -8349,10 +8349,10 @@
       <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="10" t="s">
         <v>26</v>
       </c>
@@ -8360,41 +8360,41 @@
         <v>27</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:M5"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -2672,38 +2672,98 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엔딩까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
 </t>
     </r>
     <r>
@@ -2723,35 +2783,561 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>반복</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">플레이
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">획득
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선물하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>랜덤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">등장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">퇴장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세이브</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인벤토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">불러오기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨텐츠</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다운로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>임시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UI </t>
     </r>
     <r>
       <rPr>
@@ -2771,584 +3357,57 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장소별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">퇴장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+      <t xml:space="preserve">- UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">제작
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">진행
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">완주
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">표시
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">획득
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">하기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">변화
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- VPS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">재생
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
--TC </t>
+- TC </t>
     </r>
     <r>
       <rPr>
@@ -3382,161 +3441,41 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3546,122 +3485,364 @@
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+CBT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루트</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타이틀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도움말</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">크레딧
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">화면
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로비</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>터치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>랜덤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대사</t>
     </r>
     <r>
       <rPr>
@@ -3685,6 +3866,56 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sound</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -3700,835 +3931,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>엔딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스크립트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>각</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잠긴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>열린</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구분
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>범위</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>맞는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>획득</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구매</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방명록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사진찍기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팀과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
+      <t>사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4538,64 +3960,11 @@
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
+OBT</t>
     </r>
     <r>
       <rPr>
@@ -4605,748 +3974,60 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엔딩까지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>반복</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">플레이
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구매</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">획득
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">선물하기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>랜덤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">등장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하나</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">퇴장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세이브</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상황</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인벤토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>저장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">불러오기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컨텐츠</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다운로드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>임시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이미지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">제작
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- TC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">작성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팀과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빌드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5356,11 +4037,33 @@
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-CBT</t>
+캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
     </r>
     <r>
       <rPr>
@@ -5375,147 +4078,308 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- 3D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그래픽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">제작
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메뉴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타이틀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>도움말</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">크레딧
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
 </t>
     </r>
     <r>
@@ -5535,59 +4399,175 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>인게임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">화면
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로비</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
+      <t>플레이어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미니맵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미니맵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
     </r>
     <r>
       <rPr>
@@ -5617,83 +4597,45 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>터치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>랜덤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">출력
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
 </t>
     </r>
     <r>
@@ -5713,47 +4655,273 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>대사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sound</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+      <t>간이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인벤토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-- </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에셋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">확보
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -5782,7 +4950,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">기획서
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성
 </t>
     </r>
     <r>
@@ -5821,84 +5008,100 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>적용</t>
+      <t>리소스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">확보
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-OBT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최종</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빌드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
+      <t>11.21 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프로토
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11.21~23 : 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> QA</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5954,45 +5157,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">- 3D </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그래픽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">제작
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">- </t>
     </r>
     <r>
@@ -6041,7 +5205,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">기획서
+      <t xml:space="preserve">구현
 </t>
     </r>
     <r>
@@ -6061,6 +5225,64 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>장소별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>캐릭터</t>
     </r>
     <r>
@@ -6080,26 +5302,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">퇴장
 </t>
     </r>
     <r>
@@ -6183,6 +5405,45 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">진행
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>- 1</t>
     </r>
     <r>
@@ -6212,26 +5473,485 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코스</t>
+      <t xml:space="preserve">완주
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">표시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">획득
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">변화
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- VPS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">재생
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+-TC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
     </r>
     <r>
       <rPr>
@@ -6270,103 +5990,64 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>플레이어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이동
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미니맵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
+      <t>코인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
 </t>
     </r>
     <r>
@@ -6386,52 +6067,38 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>미니맵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>산책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
@@ -6444,461 +6111,20 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인벤토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">작성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필요한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에셋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">확보
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">작성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리소스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">확보
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
 </t>
     </r>
     <r>
@@ -6914,65 +6140,858 @@
   </si>
   <si>
     <r>
-      <t>11.21 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">프로토
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>11.21~23 : 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> QA</t>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엔딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스크립트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잠긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방명록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진찍기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7226,39 +7245,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -7289,6 +7275,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -7312,6 +7301,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8170,8 +8189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8182,29 +8201,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="13"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
@@ -8240,76 +8259,76 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="24" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="24" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="25"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -8336,7 +8355,7 @@
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>18</v>
@@ -8349,10 +8368,10 @@
       <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
         <v>26</v>
       </c>
@@ -8360,41 +8379,41 @@
         <v>27</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="I9" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:M5"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="L6:M7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:M5"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -2667,64 +2667,32 @@
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
+CBT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI</t>
     </r>
     <r>
       <rPr>
@@ -2744,26 +2712,121 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>엔딩까지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
+      <t>로비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타이틀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도움말</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">크레딧
 </t>
     </r>
     <r>
@@ -2783,38 +2846,59 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>반복</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">플레이
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
+      <t>인게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">화면
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로비</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
     </r>
     <r>
       <rPr>
@@ -2844,45 +2928,83 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구매</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">획득
+      <t>터치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>랜덤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력
 </t>
     </r>
     <r>
@@ -2902,7 +3024,76 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">선물하기
+      <t>대사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sound</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
 </t>
     </r>
     <r>
@@ -2922,560 +3113,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>무료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>랜덤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">등장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하나</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">퇴장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세이브</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상황</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인벤토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>저장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">불러오기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컨텐츠</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다운로드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>임시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이미지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">제작
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- TC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">작성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팀과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
+      <t>사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3489,15 +3146,14 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-CBT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+OBT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3507,450 +3163,53 @@
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메뉴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타이틀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>도움말</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">크레딧
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인게임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">화면
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로비</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>터치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>랜덤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">출력
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sound</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>적용</t>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빌드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3960,930 +3219,1013 @@
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-OBT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최종</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빌드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- 3D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그래픽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">제작
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플레이어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미니맵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미니맵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>간이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인벤토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에셋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">확보
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리소스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">확보
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- 3D </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그래픽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">제작
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>플레이어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이동
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- UI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미니맵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미니맵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인벤토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">작성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필요한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에셋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">확보
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
+      <t>11.21 2</t>
     </r>
     <r>
       <rPr>
@@ -4912,141 +4254,771 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>프로토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">작성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리소스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">확보
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
+      <t xml:space="preserve">프로토
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11.21~23 : 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> QA</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>11.21 2</t>
-    </r>
-    <r>
-      <rPr>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장소별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">퇴장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">진행
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">완주
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">표시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">획득
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">변화
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- VPS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">재생
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+-TC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
@@ -5057,51 +5029,294 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">프로토
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>11.21~23 : 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> QA</t>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5116,38 +5331,136 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
+- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
 </t>
     </r>
     <r>
@@ -5167,45 +5480,198 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
+      <t>엔딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스크립트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -5225,45 +5691,86 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>장소별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구현
+      <t>잠긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -5283,109 +5790,153 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">퇴장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모드</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산책</t>
     </r>
     <r>
       <rPr>
@@ -5415,175 +5966,76 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">진행
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">완주
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">표시
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>선물</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
     </r>
     <r>
       <rPr>
@@ -5613,26 +6065,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">획득
+      <t>방명록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
 </t>
     </r>
     <r>
@@ -5652,489 +6104,76 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">하기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">변화
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+      <t>사진찍기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- VPS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">재생
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
--TC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">작성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>획득</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
+- QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6211,74 +6250,36 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엔딩까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
 </t>
     </r>
     <r>
@@ -6298,122 +6299,65 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>엔딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스크립트</t>
+      <t>반복</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">플레이
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코인</t>
     </r>
     <r>
       <rPr>
@@ -6432,54 +6376,38 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>각</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">표시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산책</t>
     </r>
     <r>
       <rPr>
@@ -6509,69 +6437,294 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>잠긴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>열린</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챕터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구분
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">획득
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선물하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>랜덤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">등장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">퇴장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세이브</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
@@ -6584,6 +6737,155 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인벤토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">불러오기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨텐츠</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다운로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -6593,6 +6895,17 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UI
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -6608,361 +6921,125 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>범위</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>맞는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
+      <t>임시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">제작
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구매</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방명록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사진찍기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- QA</t>
+- TC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- QA</t>
     </r>
     <r>
       <rPr>
@@ -7245,6 +7322,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -7275,9 +7385,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -7301,36 +7408,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8189,8 +8266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8201,29 +8278,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
@@ -8259,76 +8336,76 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="13" t="s">
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -8355,7 +8432,7 @@
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>18</v>
@@ -8368,10 +8445,10 @@
       <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="10" t="s">
         <v>26</v>
       </c>
@@ -8379,41 +8456,41 @@
         <v>27</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:M5"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -7322,39 +7322,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -7385,6 +7352,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -7408,6 +7378,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8266,7 +8266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -8278,29 +8278,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="13"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
@@ -8336,76 +8336,76 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="24" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="24" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="25"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -8445,10 +8445,10 @@
       <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
         <v>26</v>
       </c>
@@ -8479,18 +8479,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:M5"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="L6:M7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:M5"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -7322,6 +7322,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -7352,9 +7385,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -7378,36 +7408,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8266,8 +8266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8278,29 +8278,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
@@ -8336,76 +8336,76 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="13" t="s">
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -8445,10 +8445,10 @@
       <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="10" t="s">
         <v>26</v>
       </c>
@@ -8479,18 +8479,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:M5"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>9월</t>
   </si>
@@ -61,10 +61,6 @@
   <si>
     <t xml:space="preserve">10.06 2차 기업 미팅
 10.07 컨셉 기획서 초안 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">11.28 CBT </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -305,6 +301,698 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>1스테이지 플레이 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+캐릭터와 데이트 코스를 따라갈 수 있게 만들어 실제 데이트하는 느낌을 유저들에게 제공</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">非 핵심 기능 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도, 스토리를 통해 유저가 더 빠져들어 오랫동안 게임을 즐기도록 유도</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.31 1차 QA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 컨셉 기획서
+- 컨셉 제안서
+- 마일스톤, WBS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+구글 AR기술 R&amp;D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+캐릭터 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 3D 그래픽 제작
+- 캐릭터 모션 기획서
+- 캐릭터 이동 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리 모드(데이트)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 0스테이지 데이트 코스 기획
+- 플레이어 따라 캐릭터 이동
+- UI 미니맵 구현
+- 미니맵 기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물 시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 선물 시스템 기획서
+- 간이 인벤토리 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 상호작용 리스트 작성
+- 상호작용에 필요한 에셋 확보
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+사운드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 1차 프로토 사운드 리스트 작성
+- 사운드 리소스 확보
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+스토리 모드(데이트)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 조건에 맞게 챕터 해금
+- 스토리 호감도 시스템
+- 예외상황 설정(중단, 경로 이탈 등)
+- 스테이지별 보상 설정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 호감도에 따른 상호작용 구현
+- 호감도 수치 구체화
+- 호감도 Up/Down 연출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 만보기 연동으로 코인 획득
+- 선물 가게 지도 표시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 지정 가게 인식
+- 방명록 구현
+- 전면, 후면 카메라로 함께 사진찍기 구현
+- 사진 갤러리에 저장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- UI 기획서
+- 씬 플로우 기획서
+- UI 그래픽 제작</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.27 2차 프로토
+09.28 미니게임 출시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.28 1차 프로토
+10.28 업체 방문 시연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+컨셉 기획 확정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 컨셉 기획서(확정)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리 모드(데이트)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 데이트 시스템 기획서
+- 지정 건물 리스트
+- 공간 인식
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+캐릭터 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 캐릭터 컨셉 기획
+- 캐릭터 모션/상태/이동 기획서
+- 캐릭터 출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>R&amp;D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 필요 기술 리스트
+- 네비게이션 기능 R&amp;D
+- GPS R&amp;D
+- AR 기술 R&amp;D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+캐릭터 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 캐릭터 모션 구현
+- 장소별 모션 구현
+- 캐릭터 등/퇴장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리 모드(데이트)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 데이트 진행
+- 0스테이지 완주
+- UI에 현재 위치 표시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물 시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 선물 획득
+- 선물 하기
+- 호감도 변화
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- VPS 연출 재생
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+-TC 리스트 작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2차 프로토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 전체 루트, 스토리 기획
+- 전체 기획서
+- 비전 미팅 준비
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+OBT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종 빌드 구현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11.28 CBT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">
 스토리 모드(데이트)</t>
     </r>
@@ -426,6 +1114,139 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+CBT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로비 화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 터치 시 랜덤 대사 출력
+- 대사 기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- UI 적용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Sound</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 사운드 기획서
+- 사운드 적용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세부사항 완성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 미구현 기능 완성
+- 몰입감 상승
+- 퀄리티 UP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>QA</t>
     </r>
     <r>
@@ -443,808 +1264,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>1스테이지 플레이 가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-캐릭터와 데이트 코스를 따라갈 수 있게 만들어 실제 데이트하는 느낌을 유저들에게 제공</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">非 핵심 기능 구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도, 스토리를 통해 유저가 더 빠져들어 오랫동안 게임을 즐기도록 유도</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.31 1차 QA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 컨셉 기획서
-- 컨셉 제안서
-- 마일스톤, WBS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개발</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-구글 AR기술 R&amp;D</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-캐릭터 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 3D 그래픽 제작
-- 캐릭터 모션 기획서
-- 캐릭터 이동 구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리 모드(데이트)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 0스테이지 데이트 코스 기획
-- 플레이어 따라 캐릭터 이동
-- UI 미니맵 구현
-- 미니맵 기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물 시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 선물 시스템 기획서
-- 간이 인벤토리 구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 상호작용 리스트 작성
-- 상호작용에 필요한 에셋 확보
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-사운드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 1차 프로토 사운드 리스트 작성
-- 사운드 리소스 확보
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-스토리 모드(데이트)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 조건에 맞게 챕터 해금
-- 스토리 호감도 시스템
-- 예외상황 설정(중단, 경로 이탈 등)
-- 스테이지별 보상 설정
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 호감도에 따른 상호작용 구현
-- 호감도 수치 구체화
-- 호감도 Up/Down 연출
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 만보기 연동으로 코인 획득
-- 선물 가게 지도 표시
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 지정 가게 인식
-- 방명록 구현
-- 전면, 후면 카메라로 함께 사진찍기 구현
-- 사진 갤러리에 저장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- UI 기획서
-- 씬 플로우 기획서
-- UI 그래픽 제작</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.27 2차 프로토
-09.28 미니게임 출시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.28 1차 프로토
-10.28 업체 방문 시연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-컨셉 기획 확정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 컨셉 기획서(확정)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리 모드(데이트)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 데이트 시스템 기획서
-- 지정 건물 리스트
-- 공간 인식
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-캐릭터 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 캐릭터 컨셉 기획
-- 캐릭터 모션/상태/이동 기획서
-- 캐릭터 출력
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>R&amp;D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 필요 기술 리스트
-- 네비게이션 기능 R&amp;D
-- GPS R&amp;D
-- AR 기술 R&amp;D</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-캐릭터 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 캐릭터 모션 구현
-- 장소별 모션 구현
-- 캐릭터 등/퇴장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리 모드(데이트)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 데이트 진행
-- 0스테이지 완주
-- UI에 현재 위치 표시
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물 시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 선물 획득
-- 선물 하기
-- 호감도 변화
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- VPS 연출 재생
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
--TC 리스트 작성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>2차 프로토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 전체 루트, 스토리 기획
-- 전체 기획서
-- 비전 미팅 준비
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-OBT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최종 빌드 구현</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-CBT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로비 화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 터치 시 랜덤 대사 출력
-- 대사 기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- UI 적용
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Sound</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 사운드 기획서
-- 사운드 적용
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세부사항 완성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 미구현 기능 완성
-- 몰입감 상승
-- 퀄리티 UP</t>
-    </r>
+    <t xml:space="preserve">
+오호라 
+한주가 더 있는지 
+이제야 알아버렸네~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1339,7 +1362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1450,16 +1473,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1475,13 +1581,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1493,71 +1596,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1660,13 +1703,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>617444</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1341344</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
@@ -1732,13 +1775,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>588869</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
@@ -1881,14 +1924,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>291356</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>291355</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1084170</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1084169</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
@@ -1899,8 +1942,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14646091" y="657785"/>
-          <a:ext cx="792814" cy="803462"/>
+          <a:off x="16013208" y="523315"/>
+          <a:ext cx="792814" cy="758638"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2054,14 +2097,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>261664</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>306488</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1090339</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1135163</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
@@ -2072,8 +2115,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13249282" y="657785"/>
-          <a:ext cx="828675" cy="803462"/>
+          <a:off x="14661223" y="523315"/>
+          <a:ext cx="828675" cy="758638"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2414,233 +2457,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M9"/>
+  <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="13" width="17.875" style="18" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="14" width="17.875" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="14"/>
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="14"/>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" spans="2:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>5</v>
-      </c>
+      <c r="F6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="35"/>
+      <c r="N6" s="26"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="6"/>
+    <row r="7" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="28"/>
     </row>
-    <row r="5" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="8"/>
+    <row r="8" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="L8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1" t="s">
+    <row r="9" spans="2:14" ht="405.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="F9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="25" t="s">
+      <c r="G9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25" t="s">
+      <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="405.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32" t="s">
+      <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="K9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:M5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="L6:N7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:N5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -980,10 +980,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">11.28 CBT </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1264,10 +1260,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-오호라 
-한주가 더 있는지 
-이제야 알아버렸네~</t>
+    <t>12.02 3차 프로토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+세부사항 완성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 퀄리티 UP
+- 미구현 기능 완성</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1533,71 +1553,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1924,83 +1944,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>291355</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1084169</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>609600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16013208" y="523315"/>
-          <a:ext cx="792814" cy="758638"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CBT</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>250451</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -2186,6 +2129,139 @@
             </a:rPr>
             <a:t>프로토</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257182</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1085857</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>616323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15979035" y="530038"/>
+          <a:ext cx="828675" cy="758638"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>차</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>프로토</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>임시</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2459,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2471,30 +2547,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="14"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="23" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="34" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
-      <c r="M2" s="24"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
@@ -2533,80 +2609,80 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="2:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="25" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="25" t="s">
+      <c r="J6" s="28"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="26"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="28"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -2636,7 +2712,7 @@
         <v>22</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>15</v>
@@ -2646,10 +2722,10 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
@@ -2669,10 +2745,10 @@
         <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>39</v>
@@ -2683,18 +2759,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:N5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="L6:N7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:N5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -176,131 +176,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">
-스토리 모드(데이트)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 1~5스테이지 기획
-- 엔딩 기획
-- 스토리 모드 기획서
-- 스테이지별 기획서, 스크립트 작성
-- 잠긴/ 열린 챕터 구분
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호감도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 호감도 상호작용 범위 기획
-- 기획에 맞는 대사 기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 산책 시스템 기획서
-- 선물 구매 가게 기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 방명록 기획서
-- 사진찍기 기획서
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- QA팀과 진행</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>1스테이지 플레이 가능</t>
     </r>
     <r>
@@ -537,6 +412,319 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>09.27 2차 프로토
+09.28 미니게임 출시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.28 1차 프로토
+10.28 업체 방문 시연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+컨셉 기획 확정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 컨셉 기획서(확정)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리 모드(데이트)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 데이트 시스템 기획서
+- 지정 건물 리스트
+- 공간 인식
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+캐릭터 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 캐릭터 컨셉 기획
+- 캐릭터 모션/상태/이동 기획서
+- 캐릭터 출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>R&amp;D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 필요 기술 리스트
+- 네비게이션 기능 R&amp;D
+- GPS R&amp;D
+- AR 기술 R&amp;D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+캐릭터 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 캐릭터 모션 구현
+- 장소별 모션 구현
+- 캐릭터 등/퇴장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리 모드(데이트)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 데이트 진행
+- 0스테이지 완주
+- UI에 현재 위치 표시
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선물 시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 선물 획득
+- 선물 하기
+- 호감도 변화
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- VPS 연출 재생
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+-TC 리스트 작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2차 프로토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 전체 루트, 스토리 기획
+- 전체 기획서
+- 비전 미팅 준비
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+OBT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종 빌드 구현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -558,10 +746,158 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-- 조건에 맞게 챕터 해금
+- 1~3스테이지 기획
+- 엔딩 기획
+- 스토리 모드 기획서
+- 스테이지별 기획서, 스크립트 작성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 호감도 상호작용 범위 기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 산책 시스템 기획서
+- 선물 구매 가게 기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상호작용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 방명록 기획서
+- 사진찍기 기획서
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- QA팀과 진행
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 캐릭터 디자인 연구
+- 캐릭터 에셋 확보</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+스토리 모드(데이트)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 4~5스테이지 기획
 - 스토리 호감도 시스템
 - 예외상황 설정(중단, 경로 이탈 등)
 - 스테이지별 보상 설정
+- 0~1스테이지 구현
 </t>
     </r>
     <r>
@@ -610,8 +946,7 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-- 만보기 연동으로 코인 획득
-- 선물 가게 지도 표시
+- 선물 가게 맵에 표시
 </t>
     </r>
     <r>
@@ -667,319 +1002,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>09.27 2차 프로토
-09.28 미니게임 출시</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+CBT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리 모드(데이트)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 4~5 히든 엔딩 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로비 화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 터치 시 랜덤 대사 출력
+- 대사 기획
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- UI 완벽 적용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Sound</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 사운드 기획서
+- 사운드 적용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세부사항 완성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 미구현 기능 완성
+- 몰입감 상승
+- 퀄리티 UP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 자체 QA 진행</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.28 1차 프로토
-10.28 업체 방문 시연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-컨셉 기획 확정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 컨셉 기획서(확정)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리 모드(데이트)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 데이트 시스템 기획서
-- 지정 건물 리스트
-- 공간 인식
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-캐릭터 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 캐릭터 컨셉 기획
-- 캐릭터 모션/상태/이동 기획서
-- 캐릭터 출력
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>R&amp;D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 필요 기술 리스트
-- 네비게이션 기능 R&amp;D
-- GPS R&amp;D
-- AR 기술 R&amp;D</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-캐릭터 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 캐릭터 모션 구현
-- 장소별 모션 구현
-- 캐릭터 등/퇴장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토리 모드(데이트)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 데이트 진행
-- 0스테이지 완주
-- UI에 현재 위치 표시
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선물 시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 선물 획득
-- 선물 하기
-- 호감도 변화
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상호작용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- VPS 연출 재생
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
--TC 리스트 작성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>2차 프로토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 전체 루트, 스토리 기획
-- 전체 기획서
-- 비전 미팅 준비
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-OBT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최종 빌드 구현</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1001,7 +1190,8 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-- 엔딩까지 구현
+- 2~3스테이지 구현
+- 히든 엔딩 기획
 - 반복 플레이
 - 획득 코인, 호감도 표시
 </t>
@@ -1030,6 +1220,7 @@
 - 선물하기
 - 무료 선물 랜덤 등장
 - 하나 소환, 퇴장
+- 사진 찍기 구현
 </t>
     </r>
     <r>
@@ -1097,8 +1288,30 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">- 임시 UI 구현
-- UI 이미지 제작
+      <t xml:space="preserve">- UI 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- TC 작성
 </t>
     </r>
     <r>
@@ -1125,145 +1338,21 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-CBT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로비 화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 터치 시 랜덤 대사 출력
-- 대사 기획
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- UI 적용
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Sound</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 사운드 기획서
-- 사운드 적용
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세부사항 완성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- 미구현 기능 완성
-- 몰입감 상승
-- 퀄리티 UP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-- TC 리스트 작성
-- QA팀과 진행</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.02 3차 프로토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+3차 프로토 완성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>- 임시 3차 프로토 마일스톤
+- 미구현 파트 완성
+- 자체 QA 진행</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1288,6 +1377,11 @@
 - 퀄리티 UP
 - 미구현 기능 완성</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.02 3차 프로토
+12.03 3차 QA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1553,6 +1647,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1574,53 +1704,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2536,7 +2630,7 @@
   <dimension ref="B2:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2547,30 +2641,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="29"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="34" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="35"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
@@ -2602,87 +2696,87 @@
         <v>4</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="21"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="2:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="23"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="14" t="s">
+      <c r="J6" s="36"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -2692,7 +2786,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>11</v>
@@ -2702,17 +2796,17 @@
         <v>14</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="11"/>
       <c r="L8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>15</v>
@@ -2722,55 +2816,55 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L6:N7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:K7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:N5"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="L6:N7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
+++ b/01.일정관리/221011_VPS 1팀 마일스톤_V120.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>9월</t>
   </si>
@@ -1382,6 +1382,10 @@
   <si>
     <t>12.02 3차 프로토
 12.03 3차 QA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.10 기업 줌 미팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1647,33 +1651,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1682,39 +1719,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2231,15 +2235,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>257182</xdr:colOff>
+      <xdr:colOff>313212</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>25773</xdr:rowOff>
+      <xdr:rowOff>14566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1085857</xdr:colOff>
+      <xdr:colOff>1141887</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>616323</xdr:rowOff>
+      <xdr:rowOff>605116</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2248,7 +2252,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15979035" y="530038"/>
+          <a:off x="16035065" y="518831"/>
           <a:ext cx="828675" cy="758638"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2641,30 +2645,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="14"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="23" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
@@ -2703,80 +2707,80 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="2:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="26" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="26" t="s">
+      <c r="J6" s="28"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="31"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -2801,7 +2805,9 @@
       <c r="I8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="L8" s="7" t="s">
         <v>22</v>
       </c>
@@ -2816,10 +2822,10 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
@@ -2853,18 +2859,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:N5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="L6:N7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="I6:K7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:N5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
